--- a/biology/Neurosciences/Nerf_plantaire_latéral/Nerf_plantaire_latéral.xlsx
+++ b/biology/Neurosciences/Nerf_plantaire_latéral/Nerf_plantaire_latéral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_plantaire_lat%C3%A9ral</t>
+          <t>Nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf plantaire latéral (ou nerf plantaire externe) est un nerf mixte du pied.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_plantaire_lat%C3%A9ral</t>
+          <t>Nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf plantaire latéral est la branche terminale latérale du nerf tibial.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_plantaire_lat%C3%A9ral</t>
+          <t>Nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la plante du pied, le nerf plantaire latéral a un trajet en avant et latéralement et suit l'artère plantaire latérale jusqu'à la base du cinquième métatarsien. 
 Il passe ensuite entre les muscles court fléchisseur des orteils et carré plantaire puis se divise en branches superficielle et profonde entre les muscles court fléchisseur du petit orteil et abducteur du petit orteil.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_plantaire_lat%C3%A9ral</t>
+          <t>Nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,48 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">et la plupart des muscles profond de la plante du pied. Il est analogue au nerf ulnaire au niveau de la main.
-Innervation motrice
-Sur son trajet, le nerf plantaire latéral innerve :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_plantaire_latéral</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_plantaire_lat%C3%A9ral</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Zone d'innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Innervation motrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sur son trajet, le nerf plantaire latéral innerve :
 le muscle carré plantaire,
 le muscle abducteur du petit orteil.
 Par son rameau superficiel, il innerve
@@ -588,12 +641,85 @@
 Par son rameau profond, il innerve :
 les autres muscles interosseux,
 le muscle adducteur de l'hallux,
-les trois muscles lombricaux du pied latéraux.
-Innervation sensitive
-Le nerf plantaire latéral innerve la partie latérale de la peau de la plante du pied.
+les trois muscles lombricaux du pied latéraux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_plantaire_latéral</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_plantaire_lat%C3%A9ral</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Zone d'innervation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Innervation sensitive</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf plantaire latéral innerve la partie latérale de la peau de la plante du pied.
 La branche superficielle se divise en deux nerfs digitaux plantaires communs qui innervent la peau de la face latérale du petit orteil et du quatrième espace interdigital.
-Remarque
-Le nerf plantaire latéral est analogue au nerf ulnaire au niveau de la main.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nerf_plantaire_latéral</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_plantaire_lat%C3%A9ral</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Zone d'innervation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Innervation sensitive</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Remarque</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf plantaire latéral est analogue au nerf ulnaire au niveau de la main.
 </t>
         </is>
       </c>
